--- a/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.509131030607313</v>
+        <v>3.868532044522464</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.643201506680238</v>
+        <v>1.77161252797945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.369290981834789</v>
+        <v>-8.556442195939526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.172938143121794</v>
+        <v>-1.405811808066371</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.344249450257252</v>
+        <v>-7.907335272662487</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-20.82491578853517</v>
+        <v>-20.63113198316142</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.612031850042265</v>
+        <v>2.348178146593479</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9110046830671877</v>
+        <v>-1.280514277482034</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-13.19834476280152</v>
+        <v>-13.17237684862816</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.79666040572363</v>
+        <v>15.11974502617653</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.03096212042572</v>
+        <v>13.50514972113505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.432754077438838</v>
+        <v>6.559542700885358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.59653559481398</v>
+        <v>10.9959408509348</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.89613653058182</v>
+        <v>4.468066965285142</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.453351140521842</v>
+        <v>-6.179260905019598</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.45776543883673</v>
+        <v>10.86476347123843</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.588354103982398</v>
+        <v>7.172632200851563</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.33851892468965</v>
+        <v>-2.321685481127191</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1334256311735028</v>
+        <v>0.1586221097040682</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05914547673219657</v>
+        <v>0.06869156471633991</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.382341585387566</v>
+        <v>-0.3613487687762605</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05549327542564873</v>
+        <v>-0.0358319415124005</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2103171874337944</v>
+        <v>-0.2021903234386121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5416527263736923</v>
+        <v>-0.535854421949435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08438150124169119</v>
+        <v>0.07283875227256673</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02997982574290188</v>
+        <v>-0.04095352432873051</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4311736249289725</v>
+        <v>-0.4342007474819826</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7306034668072986</v>
+        <v>0.7765714498595865</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6506133401017277</v>
+        <v>0.6848788592425763</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.262531754733816</v>
+        <v>0.3274918015978208</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3147798255381065</v>
+        <v>0.3351863339962835</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1156775183881717</v>
+        <v>0.13272203132444</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1597373835779384</v>
+        <v>-0.1790687858511695</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4128592158637694</v>
+        <v>0.3988439073499651</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2771350738713769</v>
+        <v>0.2642910092254501</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.08529730338926042</v>
+        <v>-0.08243399924371533</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.96423802046934</v>
+        <v>5.931132966058565</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.666386708297521</v>
+        <v>-4.347616012808712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.75614384158503</v>
+        <v>-12.42163009512895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.582681384621491</v>
+        <v>-2.798098663693823</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.639063688360519</v>
+        <v>-9.378014094981451</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-27.34997326722005</v>
+        <v>-27.46891478838251</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.174293766526694</v>
+        <v>4.215931863950598</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.631122026141493</v>
+        <v>-4.549811528405978</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.41168474719748</v>
+        <v>-17.6804821278264</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.90793582574574</v>
+        <v>16.06005818410089</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.114738491070299</v>
+        <v>5.924824239747689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.6770842415376591</v>
+        <v>-0.4427557100442972</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.928513527950154</v>
+        <v>9.691139991998414</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.211879678953101</v>
+        <v>1.959440732780566</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-16.45496392961954</v>
+        <v>-15.94702082170135</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.2330978617647</v>
+        <v>11.77271425917433</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.013721690771934</v>
+        <v>2.828758790979164</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.891978701836134</v>
+        <v>-9.650560309043991</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.02379653416779236</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3871071769648922</v>
+        <v>-0.3871071769648921</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1975705966607847</v>
+        <v>0.1975603195456593</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1226605640261235</v>
+        <v>-0.1457831482620405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4383655973237851</v>
+        <v>-0.4250981123224742</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03560413164893834</v>
+        <v>-0.05749985517269848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2080513296051437</v>
+        <v>-0.2038824319593821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.592607120638585</v>
+        <v>-0.5927243560160949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1108096640677486</v>
+        <v>0.1168459388985763</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1239778750781694</v>
+        <v>-0.1262211959810225</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4725589612718663</v>
+        <v>-0.4809057262990625</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6342774250643766</v>
+        <v>0.6528279539015841</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2412814087491554</v>
+        <v>0.2321367845767292</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02878864013022284</v>
+        <v>-0.01913064236320905</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2445521652189242</v>
+        <v>0.2381890517261209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02984476517508582</v>
+        <v>0.04857118800932572</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3935923156453249</v>
+        <v>-0.3828434939112826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.365840882025909</v>
+        <v>0.3625476183472788</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08832092860592988</v>
+        <v>0.08444062663067492</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2816504193360916</v>
+        <v>-0.2856526330787229</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-2.398179354692292</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-20.26069544999</v>
+        <v>-20.26069544999001</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.304574362581699</v>
+        <v>1.966882939188349</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.675333755955399</v>
+        <v>-5.985717664469855</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.8389480005338</v>
+        <v>-19.11850993796075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.04732517810118374</v>
+        <v>0.3057489507821987</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.09507310561281</v>
+        <v>-9.113939115411855</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-31.24684161440407</v>
+        <v>-30.89424637423503</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.943678780831053</v>
+        <v>2.548388237406739</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.382168448799789</v>
+        <v>-6.213281837561626</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-23.92871254173091</v>
+        <v>-23.95609651763081</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.84775452680557</v>
+        <v>13.13704674151496</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.838276817607179</v>
+        <v>4.98872743216821</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-8.607936030465247</v>
+        <v>-8.962228922346078</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.56763498663469</v>
+        <v>11.42575629705469</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.139266204949038</v>
+        <v>2.28129986988593</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-21.66352524533287</v>
+        <v>-20.61813188689901</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.10479678978943</v>
+        <v>10.25558298336019</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.592521784952569</v>
+        <v>1.377833199035513</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-16.65114288679233</v>
+        <v>-16.77937135875334</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.008033819095503689</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4100472790034298</v>
+        <v>-0.4100472790034299</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1054372560677383</v>
@@ -1197,7 +1197,7 @@
         <v>-0.05594278681196838</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4726251037076578</v>
+        <v>-0.4726251037076579</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0644825684544045</v>
+        <v>0.05380244142875745</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1586670688546486</v>
+        <v>-0.1627709384077094</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5174731155712364</v>
+        <v>-0.5251756758259865</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.000915304293017356</v>
+        <v>0.006016890887856828</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.169927915559389</v>
+        <v>-0.1694885291409806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5758182509113774</v>
+        <v>-0.5729051959718394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04298087557057287</v>
+        <v>0.05683871656195189</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1416725488710228</v>
+        <v>-0.1396970074243554</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5299134875197883</v>
+        <v>-0.5322225952660248</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4135958258895934</v>
+        <v>0.4278961575899373</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1562278272669378</v>
+        <v>0.1654135605410569</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2712431205388069</v>
+        <v>-0.290940301535512</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2137107447128868</v>
+        <v>0.2427458964714817</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02318011837582825</v>
+        <v>0.0470934698120371</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4391456298518312</v>
+        <v>-0.4283413114435209</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2479973224162518</v>
+        <v>0.2513271165913621</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.03913424277556428</v>
+        <v>0.03437798879119992</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.407208886893964</v>
+        <v>-0.4059062830269637</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.242195251892561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-17.44036769587345</v>
+        <v>-17.44036769587346</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.687580911226533</v>
@@ -1306,7 +1306,7 @@
         <v>0.08244093606394332</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-22.35173607831475</v>
+        <v>-22.35173607831474</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.429982009755258</v>
+        <v>-4.046003158449893</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.487206483195061</v>
+        <v>-2.150696305115455</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-22.99674802278561</v>
+        <v>-23.48583977770381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.473159061410211</v>
+        <v>2.207334028798391</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.998068384518266</v>
+        <v>-9.808075780982657</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-32.54730179434434</v>
+        <v>-32.66758013784118</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7735440961372568</v>
+        <v>0.4040253116741669</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.87997251337999</v>
+        <v>-4.102907064561383</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-26.25351277881631</v>
+        <v>-26.3503680857847</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.592494006727884</v>
+        <v>8.505807938080631</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.658363572196668</v>
+        <v>10.73749477207245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.38688778406351</v>
+        <v>-11.73657262925102</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.08544508854687</v>
+        <v>13.20191555175061</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.673400745424449</v>
+        <v>1.219819176805008</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-22.27997969202611</v>
+        <v>-22.30692681373048</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.348878673401487</v>
+        <v>9.36585343201404</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.612294215428285</v>
+        <v>4.229516501798701</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-18.25695895839068</v>
+        <v>-18.84651000946934</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.08950311356200519</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3679621322829253</v>
+        <v>-0.3679621322829254</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1216610847576848</v>
@@ -1411,7 +1411,7 @@
         <v>0.001491709116869079</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4044384995824464</v>
+        <v>-0.4044384995824463</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06728004131785421</v>
+        <v>-0.0807729576003756</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04813599746676811</v>
+        <v>-0.04080147848569084</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4566701560655387</v>
+        <v>-0.4645552176323503</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02227490832994621</v>
+        <v>0.03369755551604194</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1500191520834558</v>
+        <v>-0.1478618241845211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4896091139179181</v>
+        <v>-0.4926575694368876</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01374524021803264</v>
+        <v>0.007724080619331251</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0677021424528742</v>
+        <v>-0.07130718532236731</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4538338444727528</v>
+        <v>-0.4560287134750773</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1944549180035535</v>
+        <v>0.1901925129168871</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2196323748472586</v>
+        <v>0.242597435668769</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2595468882939893</v>
+        <v>-0.2722271637812086</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2175589132062297</v>
+        <v>0.2194206776568605</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02764518064658103</v>
+        <v>0.02074176246530486</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3737265534596809</v>
+        <v>-0.3737310143960321</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1752522374246518</v>
+        <v>0.1770019736295779</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08647810125976496</v>
+        <v>0.08078506694454743</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3446097120781591</v>
+        <v>-0.3541580446806654</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-6.953222352217903</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-28.04919750918122</v>
+        <v>-28.04919750918123</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>8.868475161083179</v>
@@ -1511,7 +1511,7 @@
         <v>1.373992910062516</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-27.81585355418436</v>
+        <v>-27.81585355418435</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.87032072317435</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.223465461957518</v>
+        <v>-1.537108218215283</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.92127706105122</v>
+        <v>-13.17717552188099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-34.08691909761942</v>
+        <v>-33.99880538280054</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.228631277327868</v>
+        <v>3.18355844390919</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.908256298155553</v>
+        <v>-4.786030850672964</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-32.96262030116763</v>
+        <v>-33.04106475334906</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.707414534216789</v>
+        <v>3.192375258746203</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.904870251920989</v>
+        <v>-6.971683447777016</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-31.83329403687103</v>
+        <v>-31.98648050631431</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.991978450755127</v>
+        <v>11.42099357224467</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4286390354808084</v>
+        <v>0.1543966775980236</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-22.57248761920773</v>
+        <v>-21.35160780279307</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.6046793939596</v>
+        <v>14.03309901528824</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.441828293024082</v>
+        <v>6.99843401211451</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-22.71227262356089</v>
+        <v>-22.64102757842183</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.98331622333431</v>
+        <v>11.15348909710098</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.77404751916254</v>
+        <v>1.522075059383049</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-23.81401615910051</v>
+        <v>-23.94517878803152</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.09812622140828348</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3958397453279566</v>
+        <v>-0.3958397453279567</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1145885707360127</v>
@@ -1616,7 +1616,7 @@
         <v>0.01775320795353602</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3594055172599621</v>
+        <v>-0.3594055172599619</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.09259391393367275</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02957876215077472</v>
+        <v>-0.02110256468712032</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1864573685359805</v>
+        <v>-0.1799901977133943</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4598415091435484</v>
+        <v>-0.4621005857431641</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04065583270388031</v>
+        <v>0.04079692905761256</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04948002423605405</v>
+        <v>-0.05899303942685469</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4101300227563448</v>
+        <v>-0.4124420072110094</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03643150036316248</v>
+        <v>0.04166302318041094</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.08995619932546604</v>
+        <v>-0.09137976506714453</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4174237933899247</v>
+        <v>-0.4215470753283773</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1463099598646652</v>
+        <v>0.1686812736906052</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.005464609211693884</v>
+        <v>0.0009888702160547936</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3296230712502776</v>
+        <v>-0.3184803829589938</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1825089809121899</v>
+        <v>0.190342641470317</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09962825467628734</v>
+        <v>0.09367640074755884</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3076925957095684</v>
+        <v>-0.3025874676448346</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1546237296530223</v>
+        <v>0.1544729486571546</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02462112206167925</v>
+        <v>0.02092222450195872</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3298448287360073</v>
+        <v>-0.3379930508559105</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.3704248823744871</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-29.13309643031025</v>
+        <v>-29.13309643031026</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.44440342724896</v>
@@ -1734,7 +1734,7 @@
         <v>5.056004271466009</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-30.01065750626663</v>
+        <v>-30.01065750626661</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>10.22859954955601</v>
+        <v>10.42442264762502</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.609316543305074</v>
+        <v>4.41636494349496</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-37.31690886702992</v>
+        <v>-36.45934738659163</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.495792141184571</v>
+        <v>1.975125530492529</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.056670836326343</v>
+        <v>-4.462006297639768</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-33.9418276255723</v>
+        <v>-34.02655876172849</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.967057865818877</v>
+        <v>6.779099680353416</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.410793037971332</v>
+        <v>1.110087782975284</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-33.98518529712935</v>
+        <v>-34.3035405745359</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.90930954609688</v>
+        <v>21.26707846985245</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.87661759968039</v>
+        <v>16.44996982223698</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-23.80243339218863</v>
+        <v>-24.26669084962639</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.695465909493224</v>
+        <v>10.16019555497213</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.537238733057677</v>
+        <v>4.828249580091726</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-24.58088140612504</v>
+        <v>-24.26335124705178</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>14.15936768138599</v>
+        <v>13.97032564935049</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.008989166649314</v>
+        <v>8.849497902316152</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-25.87134431113241</v>
+        <v>-26.14722681848084</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.004183479534277831</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3290213980904532</v>
+        <v>-0.3290213980904533</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1255260698891871</v>
@@ -1839,7 +1839,7 @@
         <v>0.06076559086986924</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3606831082112206</v>
+        <v>-0.3606831082112205</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1266828086749929</v>
+        <v>0.1289524700813734</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.05846935984032813</v>
+        <v>0.05573468094890673</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4687988984122506</v>
+        <v>-0.4593713114911551</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.01676273126274121</v>
+        <v>0.02171386345527926</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0551498328896215</v>
+        <v>-0.04912103762241321</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3734724755507992</v>
+        <v>-0.3776421013131062</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08116506581702841</v>
+        <v>0.07957154921599893</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.01645270666203988</v>
+        <v>0.01279157576072084</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3999689513914187</v>
+        <v>-0.4031238883207382</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3034863197010433</v>
+        <v>0.2920752833628901</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2332829076052301</v>
+        <v>0.224337394731452</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3266955418863942</v>
+        <v>-0.3299747341282513</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1131108318653728</v>
+        <v>0.1191982115936991</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.05221229995441117</v>
+        <v>0.05596023967733705</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2837648197498999</v>
+        <v>-0.284175322179213</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1744302561644973</v>
+        <v>0.1735356574071191</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1105917814578273</v>
+        <v>0.1088901260390903</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3190344219068358</v>
+        <v>-0.3223967380431551</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>6.24691933933299</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-23.72146027766466</v>
+        <v>-23.72146027766468</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>7.535772496639748</v>
@@ -1948,7 +1948,7 @@
         <v>6.199078880420183</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-23.84565603280912</v>
+        <v>-23.84565603280914</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.777142336807952</v>
+        <v>3.213776191160334</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.9406611990314223</v>
+        <v>1.372827152549884</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-30.12657139068018</v>
+        <v>-30.12411293690779</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.076927024561954</v>
+        <v>3.515475783036472</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.3290580139741</v>
+        <v>2.117638864045396</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-27.90370090089991</v>
+        <v>-28.11209981536565</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.106617921804025</v>
+        <v>4.527424495792673</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.989761955704366</v>
+        <v>3.161744703759699</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-27.82368759709239</v>
+        <v>-27.38015316555595</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.9095323995614</v>
+        <v>13.8384670711582</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.43845918949271</v>
+        <v>12.00580384564696</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-17.01815788907285</v>
+        <v>-17.35375019200338</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.88369238342252</v>
+        <v>11.29121137645717</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.853278235538186</v>
+        <v>10.41977605017525</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-18.53391082148364</v>
+        <v>-18.49689479177833</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.86393906214722</v>
+        <v>10.71465213990941</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.296788614973444</v>
+        <v>9.440713305077098</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-19.87931719395876</v>
+        <v>-19.84598069711701</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.06947721513169676</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.2638262012720788</v>
+        <v>-0.263826201272079</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.08486167043195061</v>
@@ -2053,7 +2053,7 @@
         <v>0.06980892657872284</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.2685301612266336</v>
+        <v>-0.2685301612266338</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.03059509699553215</v>
+        <v>0.03600373622916548</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.01052522303604456</v>
+        <v>0.01591222067416492</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3360228215287916</v>
+        <v>-0.3363408971527343</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03335388697120194</v>
+        <v>0.03790820982606612</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.0255869577183494</v>
+        <v>0.02338897447903113</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3058469034536029</v>
+        <v>-0.3079698818221089</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04587170650746161</v>
+        <v>0.05046094972093252</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.03401826315850974</v>
+        <v>0.03515373321239717</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3057539389531068</v>
+        <v>-0.3033829654081769</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1700710993844818</v>
+        <v>0.1678985618522188</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1388694955029388</v>
+        <v>0.1482184961838539</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2034361858443931</v>
+        <v>-0.2088420315830624</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1257384783524269</v>
+        <v>0.1312578658421714</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1154698765835397</v>
+        <v>0.1201138133087848</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.2127934986231814</v>
+        <v>-0.2137316690102911</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1263631712369351</v>
+        <v>0.1252524740985057</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1090742831767304</v>
+        <v>0.1091384638209637</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2300642972640109</v>
+        <v>-0.2291775734165085</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>7.128400282217416</v>
+        <v>6.97971005041271</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.941750822230564</v>
+        <v>2.994427414760397</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-13.96663987759756</v>
+        <v>-13.90813571248935</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4.877688901300282</v>
+        <v>4.934596753459911</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.293165092596736</v>
+        <v>-1.339119236010929</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-22.96494137199211</v>
+        <v>-22.59935265900351</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>6.629471754229825</v>
+        <v>6.617307866089862</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.298946906732802</v>
+        <v>1.361878455182794</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-17.76069577420958</v>
+        <v>-17.72488897209104</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>12.01601455899035</v>
+        <v>12.04649934631054</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.727016952505291</v>
+        <v>7.784178342747322</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-9.026550180722198</v>
+        <v>-9.056520852579894</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>9.638685781970205</v>
+        <v>9.600897679286318</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.288775448332949</v>
+        <v>3.403714802603564</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-18.41907749139816</v>
+        <v>-18.47539421862913</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>10.01586625932303</v>
+        <v>10.1255061213395</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.843170367286774</v>
+        <v>4.879701161351945</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-14.52220682569919</v>
+        <v>-14.36228354104736</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1562003701094691</v>
+        <v>0.1539452055236408</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.06444703788917892</v>
+        <v>0.06680649670037425</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3063544612649821</v>
+        <v>-0.3055214054282663</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.07911501674574621</v>
+        <v>0.08007309476076822</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.02083603495227598</v>
+        <v>-0.02146642386824851</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.374530590891067</v>
+        <v>-0.3701539165024711</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1239129020072572</v>
+        <v>0.124221526481781</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.02407619064649809</v>
+        <v>0.02569698190190597</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3320220005879309</v>
+        <v>-0.3331277156588693</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2783620311816938</v>
+        <v>0.2819498428857127</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1779752865258107</v>
+        <v>0.1833251150700982</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2085838218477214</v>
+        <v>-0.206389538062297</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1622094028748448</v>
+        <v>0.1632809460991245</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.05534550612231245</v>
+        <v>0.05779636534047361</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.3121471415525132</v>
+        <v>-0.3116461794335342</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1944761682302179</v>
+        <v>0.1971467787513608</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.09368890438017309</v>
+        <v>0.09481914524578799</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2799864025494337</v>
+        <v>-0.2776682623901196</v>
       </c>
     </row>
     <row r="52">
